--- a/updates/excels/start_crsm_missions.xlsx
+++ b/updates/excels/start_crsm_missions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\wakaari\plugins\waka\crsm\updates\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\talktob\plugins\waka\crsm\updates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7A60F-7514-4661-956D-0C72692ABB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49026BF-C85D-4E0B-9B79-877F593C669F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{F2AD53E6-6B0F-4B64-8734-885FA0EA5B58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{F2AD53E6-6B0F-4B64-8734-885FA0EA5B58}"/>
   </bookViews>
   <sheets>
     <sheet name="project_states" sheetId="4" r:id="rId1"/>
@@ -82,205 +82,205 @@
     <t>Itération</t>
   </si>
   <si>
-    <t>-Analyse de vos données
--Réunion de travail *3
--Création des fichiers de departs</t>
-  </si>
-  <si>
-    <t>-Analyse de votre environement SI
+    <t>Formation à partir du serveur de recette ou de production
+5 personnes maximum
+Formation dans vos locaux</t>
+  </si>
+  <si>
+    <t>En cours de production</t>
+  </si>
+  <si>
+    <t>en-cours-de-production</t>
+  </si>
+  <si>
+    <t>Terminé ( vendu )</t>
+  </si>
+  <si>
+    <t>termine-vendu</t>
+  </si>
+  <si>
+    <t>Abandonné ( non vendu )</t>
+  </si>
+  <si>
+    <t>abandonne-non-vendu</t>
+  </si>
+  <si>
+    <t>Perdu</t>
+  </si>
+  <si>
+    <t>perdu</t>
+  </si>
+  <si>
+    <t>is_running</t>
+  </si>
+  <si>
+    <t>contact_id</t>
+  </si>
+  <si>
+    <t>cp_id</t>
+  </si>
+  <si>
+    <t>project_state_id</t>
+  </si>
+  <si>
+    <t>closed_at</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Quisque purus</t>
+  </si>
+  <si>
+    <t>diam nunc,</t>
+  </si>
+  <si>
+    <t>enim, condimentum</t>
+  </si>
+  <si>
+    <t>vitae risus. Duis</t>
+  </si>
+  <si>
+    <t>Vivamus rhoncus. Donec est.</t>
+  </si>
+  <si>
+    <t>non lorem vitae</t>
+  </si>
+  <si>
+    <t>eu augue porttitor interdum.</t>
+  </si>
+  <si>
+    <t>odio. Aliquam vulputate</t>
+  </si>
+  <si>
+    <t>sem ut dolor dapibus gravida.</t>
+  </si>
+  <si>
+    <t>non nisi. Aenean</t>
+  </si>
+  <si>
+    <t>ligula. Aenean euismod mauris eu</t>
+  </si>
+  <si>
+    <t>facilisis facilisis, magna</t>
+  </si>
+  <si>
+    <t>varius orci, in consequat</t>
+  </si>
+  <si>
+    <t>Nullam vitae</t>
+  </si>
+  <si>
+    <t>elit, a feugiat</t>
+  </si>
+  <si>
+    <t>lectus convallis est,</t>
+  </si>
+  <si>
+    <t>dui, in</t>
+  </si>
+  <si>
+    <t>vestibulum, neque sed dictum eleifend,</t>
+  </si>
+  <si>
+    <t>orci. Ut semper pretium neque.</t>
+  </si>
+  <si>
+    <t>consectetuer, cursus et, magna.</t>
+  </si>
+  <si>
+    <t>egestas hendrerit</t>
+  </si>
+  <si>
+    <t>amet nulla. Donec non</t>
+  </si>
+  <si>
+    <t>luctus vulputate, nisi sem</t>
+  </si>
+  <si>
+    <t>amet risus.</t>
+  </si>
+  <si>
+    <t>semper, dui</t>
+  </si>
+  <si>
+    <t>risus, at fringilla purus</t>
+  </si>
+  <si>
+    <t>Sed nunc est, mollis</t>
+  </si>
+  <si>
+    <t>ac, eleifend vitae, erat. Vivamus</t>
+  </si>
+  <si>
+    <t>Etiam laoreet,</t>
+  </si>
+  <si>
+    <t>nonummy ipsum non arcu. Vivamus</t>
+  </si>
+  <si>
+    <t>adipiscing lobortis risus. In</t>
+  </si>
+  <si>
+    <t>odio tristique</t>
+  </si>
+  <si>
+    <t>est. Nunc ullamcorper,</t>
+  </si>
+  <si>
+    <t>vitae nibh. Donec est mauris,</t>
+  </si>
+  <si>
+    <t>Préparation offre</t>
+  </si>
+  <si>
+    <t>En proposition</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t>en-proposition</t>
+  </si>
+  <si>
+    <t>-Analyse de votre environnement SI
 -Proposition d'un type d'intégration
--Réunion avec la DSI et choix du mode d'intéraction ( API, SQL, CSV )</t>
+-Réunion avec la DSI et choix du mode d'interaction ( API, SQL, CSV )</t>
   </si>
   <si>
     <t>-Ajout d'une nouvelle brique métier
--Connection avec le framework
+-Connexion avec le framework
 -Test sur serveur de recette
 -Mise en production</t>
   </si>
   <si>
     <t>-Parametrage du serveur sous Digital Océan
--Paramétrage de l'application de recette et de produciton
+-Paramétrage de l'application de recette et de production
 -Création des dossiers GIT
 -Configuration des services Wakaari
--Création de votre plugin client</t>
+-Création de votre plug-in client</t>
   </si>
   <si>
     <t>Itération de départ sur votre problématique : 
 Réunion de départ dans vos locaux
 Développement speedcoding et soumission 5j plus tard de la première version. 
-Note d'avancement et problématique rencontré</t>
+Note d'avancement et problématique rencontrée</t>
   </si>
   <si>
     <t>Prise en compte des demandes clients
 Ajustement des champs et des outils
-Mise en place des preières regles de sécurité et de droits d'accès</t>
+Mise en place des premières règles de sécurité et de droits d'accès</t>
   </si>
   <si>
     <t>Ajustement des champs et des outils selon retour client
 Finalisation des règles de sécurité
-Réunion de debriefing
+Réunion de débriefing
 Mise en production de l'itération ( mise en ligne )</t>
   </si>
   <si>
-    <t>Formation à partir du serveur de recette ou de production
-5 personnes maximum
-Formation dans vos locaux</t>
-  </si>
-  <si>
-    <t>En cours de production</t>
-  </si>
-  <si>
-    <t>en-cours-de-production</t>
-  </si>
-  <si>
-    <t>Terminé ( vendu )</t>
-  </si>
-  <si>
-    <t>termine-vendu</t>
-  </si>
-  <si>
-    <t>Abandonné ( non vendu )</t>
-  </si>
-  <si>
-    <t>abandonne-non-vendu</t>
-  </si>
-  <si>
-    <t>Perdu</t>
-  </si>
-  <si>
-    <t>perdu</t>
-  </si>
-  <si>
-    <t>is_running</t>
-  </si>
-  <si>
-    <t>contact_id</t>
-  </si>
-  <si>
-    <t>cp_id</t>
-  </si>
-  <si>
-    <t>project_state_id</t>
-  </si>
-  <si>
-    <t>closed_at</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Quisque purus</t>
-  </si>
-  <si>
-    <t>diam nunc,</t>
-  </si>
-  <si>
-    <t>enim, condimentum</t>
-  </si>
-  <si>
-    <t>vitae risus. Duis</t>
-  </si>
-  <si>
-    <t>Vivamus rhoncus. Donec est.</t>
-  </si>
-  <si>
-    <t>non lorem vitae</t>
-  </si>
-  <si>
-    <t>eu augue porttitor interdum.</t>
-  </si>
-  <si>
-    <t>odio. Aliquam vulputate</t>
-  </si>
-  <si>
-    <t>sem ut dolor dapibus gravida.</t>
-  </si>
-  <si>
-    <t>non nisi. Aenean</t>
-  </si>
-  <si>
-    <t>ligula. Aenean euismod mauris eu</t>
-  </si>
-  <si>
-    <t>facilisis facilisis, magna</t>
-  </si>
-  <si>
-    <t>varius orci, in consequat</t>
-  </si>
-  <si>
-    <t>Nullam vitae</t>
-  </si>
-  <si>
-    <t>elit, a feugiat</t>
-  </si>
-  <si>
-    <t>lectus convallis est,</t>
-  </si>
-  <si>
-    <t>dui, in</t>
-  </si>
-  <si>
-    <t>vestibulum, neque sed dictum eleifend,</t>
-  </si>
-  <si>
-    <t>orci. Ut semper pretium neque.</t>
-  </si>
-  <si>
-    <t>consectetuer, cursus et, magna.</t>
-  </si>
-  <si>
-    <t>egestas hendrerit</t>
-  </si>
-  <si>
-    <t>amet nulla. Donec non</t>
-  </si>
-  <si>
-    <t>luctus vulputate, nisi sem</t>
-  </si>
-  <si>
-    <t>amet risus.</t>
-  </si>
-  <si>
-    <t>semper, dui</t>
-  </si>
-  <si>
-    <t>risus, at fringilla purus</t>
-  </si>
-  <si>
-    <t>Sed nunc est, mollis</t>
-  </si>
-  <si>
-    <t>ac, eleifend vitae, erat. Vivamus</t>
-  </si>
-  <si>
-    <t>Etiam laoreet,</t>
-  </si>
-  <si>
-    <t>nonummy ipsum non arcu. Vivamus</t>
-  </si>
-  <si>
-    <t>adipiscing lobortis risus. In</t>
-  </si>
-  <si>
-    <t>odio tristique</t>
-  </si>
-  <si>
-    <t>est. Nunc ullamcorper,</t>
-  </si>
-  <si>
-    <t>vitae nibh. Donec est mauris,</t>
-  </si>
-  <si>
-    <t>Préparation offre</t>
-  </si>
-  <si>
-    <t>En proposition</t>
-  </si>
-  <si>
-    <t>preparation</t>
-  </si>
-  <si>
-    <t>en-proposition</t>
+    <t>-Analyse de vos données
+-Réunion de travail *3
+-Création des fichiers de départs</t>
   </si>
 </sst>
 </file>
@@ -351,19 +351,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,6 +375,28 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -382,20 +404,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,11 +441,7 @@
     <tableColumn id="1" xr3:uid="{2B89056F-55E5-4667-BD01-D340E02747B5}" name="is_template"/>
     <tableColumn id="2" xr3:uid="{4864B572-C855-462F-9ED8-B7FE4B42834F}" name="project_id"/>
     <tableColumn id="3" xr3:uid="{867ED6BD-0F76-4D1D-A649-8594C48ABC2F}" name="name" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{D609D834-9A78-4494-8FC0-64C37F315DB0}" name="description" dataDxfId="1" dataCellStyle="Normal 2">
-      <calculatedColumnFormula array="1">-Analyse de vos données
--Réunion de travail *3
--Création des fichiers de departs</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D609D834-9A78-4494-8FC0-64C37F315DB0}" name="description" dataDxfId="0" dataCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{3FA048AD-E7EC-4811-B33E-FC43188A383E}" name="qty"/>
     <tableColumn id="8" xr3:uid="{B1D5836B-652E-4190-A5F4-43B033CCCA0F}" name="amount"/>
   </tableColumns>
@@ -744,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EBE010-D2B6-4DD3-B8B7-73257B2E5247}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -762,15 +766,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -778,10 +782,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -789,10 +793,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -800,10 +804,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -811,10 +815,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -822,10 +826,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -860,58 +864,58 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -928,13 +932,13 @@
       <c r="F4">
         <v>1200</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>43689</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
+      <c r="A5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -951,13 +955,13 @@
       <c r="F5">
         <v>4600</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>43811</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
+      <c r="A6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -976,8 +980,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
-        <v>42</v>
+      <c r="A7" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -996,8 +1000,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
+      <c r="A8" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1016,8 +1020,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>44</v>
+      <c r="A9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1036,8 +1040,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>45</v>
+      <c r="A10" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1056,8 +1060,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>46</v>
+      <c r="A11" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1076,8 +1080,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>47</v>
+      <c r="A12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1096,8 +1100,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>48</v>
+      <c r="A13" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1116,8 +1120,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>49</v>
+      <c r="A14" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1136,8 +1140,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
+      <c r="A15" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -1156,8 +1160,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>51</v>
+      <c r="A16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1176,8 +1180,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
+      <c r="A17" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1196,8 +1200,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
-        <v>53</v>
+      <c r="A18" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1216,8 +1220,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
-        <v>54</v>
+      <c r="A19" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1236,8 +1240,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
-        <v>55</v>
+      <c r="A20" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1256,8 +1260,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
+      <c r="A21" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1274,13 +1278,13 @@
       <c r="F21">
         <v>10054</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>43831</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
-        <v>57</v>
+      <c r="A22" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1297,13 +1301,13 @@
       <c r="F22">
         <v>8988</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>43831</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
-        <v>58</v>
+      <c r="A23" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -1322,8 +1326,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
-        <v>59</v>
+      <c r="A24" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1342,8 +1346,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
-        <v>60</v>
+      <c r="A25" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1360,18 +1364,18 @@
       <c r="F25">
         <v>2459</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
-        <v>61</v>
+      <c r="A26" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1388,18 +1392,18 @@
       <c r="F26">
         <v>8079</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
-        <v>62</v>
+      <c r="A27" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1418,8 +1422,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
-        <v>63</v>
+      <c r="A28" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1438,8 +1442,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
-        <v>64</v>
+      <c r="A29" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -1458,8 +1462,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
-        <v>65</v>
+      <c r="A30" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -1478,8 +1482,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>66</v>
+      <c r="A31" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -1496,13 +1500,13 @@
       <c r="F31">
         <v>3004</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <v>43831</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="7" t="s">
-        <v>67</v>
+      <c r="A32" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1519,13 +1523,13 @@
       <c r="F32">
         <v>1282</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <v>44166</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
-        <v>68</v>
+      <c r="A33" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -1542,13 +1546,13 @@
       <c r="F33">
         <v>3521</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>43831</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="7" t="s">
-        <v>69</v>
+      <c r="A34" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1565,13 +1569,13 @@
       <c r="F34">
         <v>3095</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>43831</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="7" t="s">
-        <v>70</v>
+      <c r="A35" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1591,7 +1595,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1606,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A611BDA-A1EF-4069-9C60-0E3F2A490874}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1645,8 +1649,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1662,8 +1666,8 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1679,8 +1683,8 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1696,8 +1700,8 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1713,8 +1717,8 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
+      <c r="D6" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1730,8 +1734,8 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1747,8 +1751,8 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1764,8 +1768,8 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1781,8 +1785,8 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
+      <c r="D10" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1795,11 +1799,11 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1812,11 +1816,11 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1829,11 +1833,11 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
+      <c r="D13" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1846,11 +1850,11 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
+      <c r="D14" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1863,11 +1867,11 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
+      <c r="D15" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E15">
         <v>3</v>

--- a/updates/excels/start_crsm_missions.xlsx
+++ b/updates/excels/start_crsm_missions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\talktob\plugins\waka\crsm\updates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49026BF-C85D-4E0B-9B79-877F593C669F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5D3DC4-7233-41C8-972B-2F99931DBCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{F2AD53E6-6B0F-4B64-8734-885FA0EA5B58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{F2AD53E6-6B0F-4B64-8734-885FA0EA5B58}"/>
   </bookViews>
   <sheets>
     <sheet name="project_states" sheetId="4" r:id="rId1"/>
@@ -372,7 +372,37 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{0F63A3BB-C4F4-4D00-A78A-5A79366AB015}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{9AE0E021-FB6A-4329-BE39-0A1EA77E987E}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -394,16 +424,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,7 +461,7 @@
     <tableColumn id="1" xr3:uid="{2B89056F-55E5-4667-BD01-D340E02747B5}" name="is_template"/>
     <tableColumn id="2" xr3:uid="{4864B572-C855-462F-9ED8-B7FE4B42834F}" name="project_id"/>
     <tableColumn id="3" xr3:uid="{867ED6BD-0F76-4D1D-A649-8594C48ABC2F}" name="name" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{D609D834-9A78-4494-8FC0-64C37F315DB0}" name="description" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{D609D834-9A78-4494-8FC0-64C37F315DB0}" name="description" dataDxfId="3" dataCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{3FA048AD-E7EC-4811-B33E-FC43188A383E}" name="qty"/>
     <tableColumn id="8" xr3:uid="{B1D5836B-652E-4190-A5F4-43B033CCCA0F}" name="amount"/>
   </tableColumns>
@@ -748,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EBE010-D2B6-4DD3-B8B7-73257B2E5247}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +865,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1595,9 +1615,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E35">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A35">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1610,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A611BDA-A1EF-4069-9C60-0E3F2A490874}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
